--- a/Measurements/Effeciency/Effeciency Open Loop 13-01-2017.xlsx
+++ b/Measurements/Effeciency/Effeciency Open Loop 13-01-2017.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="264" documentId="74A17B0689622990A51C052D9679C61268987CF0" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{AFF8D813-EB28-4BD8-A12F-1D2818AE71B9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,8 +19,34 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Voltage [V]</t>
+  </si>
+  <si>
+    <t>Current [A]</t>
+  </si>
+  <si>
+    <t>Power [W]</t>
+  </si>
+  <si>
+    <t>Logic [W]</t>
+  </si>
+  <si>
+    <t>Effeciency</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,6 +93,950 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$H$57:$H$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3849999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3850000000000016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.35552</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.505760000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.2896</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.247720000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.880499999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.367999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$J$57:$J$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>75.728155339805824</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.947976878612707</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.272300469483554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.443495145631061</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.372370486656209</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85.503546099290787</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85.538325281803552</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85.604460093896705</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>84.644644644644643</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-91F0-49A4-A2FF-45351956A488}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="472769496"/>
+        <c:axId val="472775072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="472769496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472775072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="472775072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472769496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>188118</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>78581</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{898E3D11-A5C7-45AB-A2A8-787A5804BE83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +1301,1770 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44:O50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.46484375" customWidth="1"/>
+    <col min="4" max="4" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1328125" customWidth="1"/>
+    <col min="6" max="7" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.3</v>
+      </c>
+      <c r="D3">
+        <f>A3*B3+C3</f>
+        <v>0.74</v>
+      </c>
+      <c r="F3">
+        <v>10.3</v>
+      </c>
+      <c r="G3">
+        <v>3.1E-2</v>
+      </c>
+      <c r="H3">
+        <f>F3*G3</f>
+        <v>0.31930000000000003</v>
+      </c>
+      <c r="J3">
+        <f>H3/D3*100</f>
+        <v>43.148648648648653</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.3</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D58" si="0">A4*B4+C4</f>
+        <v>1.32</v>
+      </c>
+      <c r="F4">
+        <v>10.7</v>
+      </c>
+      <c r="G4">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H58" si="1">F4*G4</f>
+        <v>0.79179999999999995</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J58" si="2">H4/D4*100</f>
+        <v>59.984848484848477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>0.04</v>
+      </c>
+      <c r="C5">
+        <v>0.3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F5">
+        <v>10.6</v>
+      </c>
+      <c r="G5">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>54.927272727272722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.3</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.76</v>
+      </c>
+      <c r="F6">
+        <v>10.3</v>
+      </c>
+      <c r="G6">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0.3296</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>43.368421052631575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.3</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.62999999999999989</v>
+      </c>
+      <c r="F8">
+        <v>5.4</v>
+      </c>
+      <c r="G8">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0.18360000000000001</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>29.142857142857149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.3</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="F9">
+        <v>5.7</v>
+      </c>
+      <c r="G9">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0.35910000000000003</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>47.88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>0.02</v>
+      </c>
+      <c r="C10">
+        <v>0.3</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F10">
+        <v>5.8</v>
+      </c>
+      <c r="G10">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0.4582</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>50.911111111111119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.3</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>2.79</v>
+      </c>
+      <c r="F11">
+        <v>6.5</v>
+      </c>
+      <c r="G11">
+        <v>0.316</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>2.0539999999999998</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>73.620071684587813</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>0.09</v>
+      </c>
+      <c r="C12">
+        <v>0.3</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="F12">
+        <v>5.05</v>
+      </c>
+      <c r="G12">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>2.1563499999999998</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>71.87833333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.3</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>3.2399999999999998</v>
+      </c>
+      <c r="F13">
+        <v>5.05</v>
+      </c>
+      <c r="G13">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>2.3532999999999999</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>72.632716049382722</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>0.108</v>
+      </c>
+      <c r="C14">
+        <v>0.3</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>3.5399999999999996</v>
+      </c>
+      <c r="F14">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="G14">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>2.5907199999999997</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>73.184180790960454</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>0.13</v>
+      </c>
+      <c r="C15">
+        <v>0.3</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="F15">
+        <v>5.07</v>
+      </c>
+      <c r="G15">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>3.10791</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>73.997857142857143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="C16">
+        <v>0.3</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>5.16</v>
+      </c>
+      <c r="F16">
+        <v>5.08</v>
+      </c>
+      <c r="G16">
+        <v>0.753</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>3.82524</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>74.132558139534879</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>0.185</v>
+      </c>
+      <c r="C17">
+        <v>0.3</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>5.85</v>
+      </c>
+      <c r="F17">
+        <v>5.09</v>
+      </c>
+      <c r="G17">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>4.3672199999999997</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>74.653333333333322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="C18">
+        <v>0.3</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>6.2700000000000005</v>
+      </c>
+      <c r="F18">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G18">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>4.6715999999999998</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>74.507177033492809</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="C19">
+        <v>0.3</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>7.47</v>
+      </c>
+      <c r="F19">
+        <v>5.12</v>
+      </c>
+      <c r="G19">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>5.5808000000000009</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>74.709504685408319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C20">
+        <v>0.3</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>9.42</v>
+      </c>
+      <c r="F20">
+        <v>5.14</v>
+      </c>
+      <c r="G20">
+        <v>1.35</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>6.9390000000000001</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>73.662420382165607</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>0.371</v>
+      </c>
+      <c r="C21">
+        <v>0.3</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>11.43</v>
+      </c>
+      <c r="F21">
+        <v>5.17</v>
+      </c>
+      <c r="G21">
+        <v>1.62</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>8.3754000000000008</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>73.275590551181111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="C22">
+        <v>0.3</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>14.790000000000001</v>
+      </c>
+      <c r="F22">
+        <v>5.23</v>
+      </c>
+      <c r="G22">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>11.401400000000002</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>77.088573360378646</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <v>0.68</v>
+      </c>
+      <c r="C23">
+        <v>0.3</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>20.700000000000003</v>
+      </c>
+      <c r="F23">
+        <v>5.3</v>
+      </c>
+      <c r="G23">
+        <v>2.93</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>15.529</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>75.019323671497574</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>40</v>
+      </c>
+      <c r="B25">
+        <v>0.02</v>
+      </c>
+      <c r="C25">
+        <v>0.3</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F25">
+        <v>30</v>
+      </c>
+      <c r="G25">
+        <v>2E-3</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>0.06</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>5.4545454545454533</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.3</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>3.1399999999999997</v>
+      </c>
+      <c r="F26">
+        <v>30</v>
+      </c>
+      <c r="G26">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>2.0100000000000002</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>64.012738853503208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>0.08</v>
+      </c>
+      <c r="C27">
+        <v>0.3</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="F27">
+        <v>30</v>
+      </c>
+      <c r="G27">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>2.31</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>40</v>
+      </c>
+      <c r="B28">
+        <v>0.1</v>
+      </c>
+      <c r="C28">
+        <v>0.3</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>4.3</v>
+      </c>
+      <c r="F28">
+        <v>30</v>
+      </c>
+      <c r="G28">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>2.91</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>67.674418604651166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="C29">
+        <v>0.3</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>5.54</v>
+      </c>
+      <c r="F29">
+        <v>30</v>
+      </c>
+      <c r="G29">
+        <v>0.128</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>3.84</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>69.314079422382662</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="C31">
+        <v>0.3</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F31">
+        <v>20</v>
+      </c>
+      <c r="G31">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>0.36</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>31.578947368421055</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="C32">
+        <v>0.3</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>1.68</v>
+      </c>
+      <c r="F32">
+        <v>20</v>
+      </c>
+      <c r="G32">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>0.96</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>57.142857142857139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="C33">
+        <v>0.3</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F33">
+        <v>20</v>
+      </c>
+      <c r="G33">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="2"/>
+        <v>62.801932367149774</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>0.01</v>
+      </c>
+      <c r="C35">
+        <v>0.3</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="F35">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G35">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>0.18359999999999999</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="2"/>
+        <v>30.599999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>30</v>
+      </c>
+      <c r="B36">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="C36">
+        <v>0.3</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F36">
+        <v>10.7</v>
+      </c>
+      <c r="G36">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>0.66339999999999999</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="2"/>
+        <v>58.192982456140349</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>30</v>
+      </c>
+      <c r="B37">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C37">
+        <v>0.3</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>1.35</v>
+      </c>
+      <c r="F37">
+        <v>10.8</v>
+      </c>
+      <c r="G37">
+        <v>7.8E-2</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>0.84240000000000004</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="2"/>
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>30</v>
+      </c>
+      <c r="B38">
+        <v>0.1</v>
+      </c>
+      <c r="C38">
+        <v>0.3</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+      <c r="F38">
+        <v>11.3</v>
+      </c>
+      <c r="G38">
+        <v>0.22</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>2.4860000000000002</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="2"/>
+        <v>75.333333333333343</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>30</v>
+      </c>
+      <c r="B39">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="C39">
+        <v>0.3</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>5.4599999999999991</v>
+      </c>
+      <c r="F39">
+        <v>11.7</v>
+      </c>
+      <c r="G39">
+        <v>0.374</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>4.3757999999999999</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="2"/>
+        <v>80.142857142857167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>30</v>
+      </c>
+      <c r="B40">
+        <v>0.192</v>
+      </c>
+      <c r="C40">
+        <v>0.3</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>6.06</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>5.07</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="2"/>
+        <v>83.663366336633672</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>30</v>
+      </c>
+      <c r="B41">
+        <v>0.24</v>
+      </c>
+      <c r="C41">
+        <v>0.3</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999991</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41">
+        <v>0.628</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>6.28</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="2"/>
+        <v>83.733333333333348</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>30</v>
+      </c>
+      <c r="B42">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="C42">
+        <v>0.3</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>8.5200000000000014</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>7.14</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="2"/>
+        <v>83.802816901408434</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>30</v>
+      </c>
+      <c r="B43">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C43">
+        <v>0.3</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>9.42</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>7.92</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="2"/>
+        <v>84.076433121019107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>30</v>
+      </c>
+      <c r="B44">
+        <v>0.316</v>
+      </c>
+      <c r="C44">
+        <v>0.3</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>9.7800000000000011</v>
+      </c>
+      <c r="F44">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="G44">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>8.23095</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="2"/>
+        <v>84.161042944785265</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>30</v>
+      </c>
+      <c r="B45">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="C45">
+        <v>0.3</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>10.440000000000001</v>
+      </c>
+      <c r="F45">
+        <v>10.06</v>
+      </c>
+      <c r="G45">
+        <v>0.878</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>8.8326799999999999</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="2"/>
+        <v>84.604214559386961</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>30</v>
+      </c>
+      <c r="B46">
+        <v>0.378</v>
+      </c>
+      <c r="C46">
+        <v>0.3</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>11.64</v>
+      </c>
+      <c r="F46">
+        <v>10.06</v>
+      </c>
+      <c r="G46">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>9.8286200000000008</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="2"/>
+        <v>84.438316151202756</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>30</v>
+      </c>
+      <c r="B47">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="C47">
+        <v>0.3</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>13.830000000000002</v>
+      </c>
+      <c r="F47">
+        <v>10.07</v>
+      </c>
+      <c r="G47">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>11.681199999999999</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="2"/>
+        <v>84.462762111352106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>30</v>
+      </c>
+      <c r="B48">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="C48">
+        <v>0.3</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>15.72</v>
+      </c>
+      <c r="F48">
+        <v>10.08</v>
+      </c>
+      <c r="G48">
+        <v>1.31</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>13.204800000000001</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>30</v>
+      </c>
+      <c r="B49">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="C49">
+        <v>0.3</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>16.740000000000002</v>
+      </c>
+      <c r="F49">
+        <v>10.08</v>
+      </c>
+      <c r="G49">
+        <v>1.39</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>14.011199999999999</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="2"/>
+        <v>83.698924731182771</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>30</v>
+      </c>
+      <c r="B50">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C50">
+        <v>0.3</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>17.7</v>
+      </c>
+      <c r="F50">
+        <v>10.09</v>
+      </c>
+      <c r="G50">
+        <v>1.47</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>14.8323</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="2"/>
+        <v>83.798305084745763</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>30</v>
+      </c>
+      <c r="B51">
+        <v>0.62</v>
+      </c>
+      <c r="C51">
+        <v>0.3</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>18.900000000000002</v>
+      </c>
+      <c r="F51">
+        <v>10.09</v>
+      </c>
+      <c r="G51">
+        <v>1.56</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>15.740400000000001</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="2"/>
+        <v>83.282539682539678</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>30</v>
+      </c>
+      <c r="B52">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="C52">
+        <v>0.3</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>20.130000000000003</v>
+      </c>
+      <c r="F52">
+        <v>10.1</v>
+      </c>
+      <c r="G52">
+        <v>1.66</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>16.765999999999998</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="2"/>
+        <v>83.288623944361632</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>30</v>
+      </c>
+      <c r="B53">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="C53">
+        <v>0.3</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>21.66</v>
+      </c>
+      <c r="F53">
+        <v>10.11</v>
+      </c>
+      <c r="G53">
+        <v>1.78</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="1"/>
+        <v>17.995799999999999</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="2"/>
+        <v>83.08310249307479</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>30</v>
+      </c>
+      <c r="B54">
+        <v>0.8</v>
+      </c>
+      <c r="C54">
+        <v>0.3</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>24.3</v>
+      </c>
+      <c r="F54">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="G54">
+        <v>1.98</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="1"/>
+        <v>20.037599999999998</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="2"/>
+        <v>82.459259259259241</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>30</v>
+      </c>
+      <c r="B55">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="C55">
+        <v>0.3</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>24.87</v>
+      </c>
+      <c r="F55">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="G55">
+        <v>2.02</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="1"/>
+        <v>20.442399999999999</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="2"/>
+        <v>82.197024527543221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>30</v>
+      </c>
+      <c r="B57">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="C57">
+        <v>0.3</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ref="D57" si="3">A57*B57+C57</f>
+        <v>3.09</v>
+      </c>
+      <c r="F57">
+        <v>15</v>
+      </c>
+      <c r="G57">
+        <v>0.156</v>
+      </c>
+      <c r="H57">
+        <f t="shared" ref="H57" si="4">F57*G57</f>
+        <v>2.34</v>
+      </c>
+      <c r="J57">
+        <f t="shared" ref="J57" si="5">H57/D57*100</f>
+        <v>75.728155339805824</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>30</v>
+      </c>
+      <c r="B58">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="C58">
+        <v>0.3</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>5.19</v>
+      </c>
+      <c r="F58">
+        <v>15</v>
+      </c>
+      <c r="G58">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="1"/>
+        <v>4.3049999999999997</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="2"/>
+        <v>82.947976878612707</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>30</v>
+      </c>
+      <c r="B59">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="C59">
+        <v>0.3</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ref="D59:D80" si="6">A59*B59+C59</f>
+        <v>6.3900000000000006</v>
+      </c>
+      <c r="F59">
+        <v>15</v>
+      </c>
+      <c r="G59">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="H59">
+        <f t="shared" ref="H59:H80" si="7">F59*G59</f>
+        <v>5.3849999999999998</v>
+      </c>
+      <c r="J59">
+        <f t="shared" ref="J59:J80" si="8">H59/D59*100</f>
+        <v>84.272300469483554</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>30</v>
+      </c>
+      <c r="B60">
+        <v>0.315</v>
+      </c>
+      <c r="C60">
+        <v>0.3</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="6"/>
+        <v>9.75</v>
+      </c>
+      <c r="F60">
+        <v>15</v>
+      </c>
+      <c r="G60">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="7"/>
+        <v>8.3850000000000016</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="8"/>
+        <v>86.000000000000014</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>30</v>
+      </c>
+      <c r="B61">
+        <v>0.505</v>
+      </c>
+      <c r="C61">
+        <v>0.3</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="6"/>
+        <v>15.450000000000001</v>
+      </c>
+      <c r="F61">
+        <v>15.04</v>
+      </c>
+      <c r="G61">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="7"/>
+        <v>13.35552</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="8"/>
+        <v>86.443495145631061</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>30</v>
+      </c>
+      <c r="B62">
+        <v>0.627</v>
+      </c>
+      <c r="C62">
+        <v>0.3</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="6"/>
+        <v>19.11</v>
+      </c>
+      <c r="F62">
+        <v>15.06</v>
+      </c>
+      <c r="G62">
+        <v>1.0960000000000001</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="7"/>
+        <v>16.505760000000002</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="8"/>
+        <v>86.372370486656209</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>30</v>
+      </c>
+      <c r="B63">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="C63">
+        <v>0.3</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="6"/>
+        <v>22.56</v>
+      </c>
+      <c r="F63">
+        <v>15.07</v>
+      </c>
+      <c r="G63">
+        <v>1.28</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="7"/>
+        <v>19.2896</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="8"/>
+        <v>85.503546099290787</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>30</v>
+      </c>
+      <c r="B64">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="C64">
+        <v>0.3</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="6"/>
+        <v>24.84</v>
+      </c>
+      <c r="F64">
+        <v>15.08</v>
+      </c>
+      <c r="G64">
+        <v>1.409</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="7"/>
+        <v>21.247720000000001</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="8"/>
+        <v>85.538325281803552</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>30</v>
+      </c>
+      <c r="B65">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="C65">
+        <v>0.3</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="6"/>
+        <v>25.56</v>
+      </c>
+      <c r="F65">
+        <v>15.09</v>
+      </c>
+      <c r="G65">
+        <v>1.45</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="7"/>
+        <v>21.880499999999998</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="8"/>
+        <v>85.604460093896705</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>30</v>
+      </c>
+      <c r="B66">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="C66">
+        <v>0.3</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="6"/>
+        <v>29.97</v>
+      </c>
+      <c r="F66">
+        <v>15.1</v>
+      </c>
+      <c r="G66">
+        <v>1.68</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="7"/>
+        <v>25.367999999999999</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="8"/>
+        <v>84.644644644644643</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>